--- a/EISPC/Data/Regional Fuel Prices/Regional Fuel Prices.xlsx
+++ b/EISPC/Data/Regional Fuel Prices/Regional Fuel Prices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="7635" windowHeight="1170" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="7635" windowHeight="1170" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,21 @@
     <sheet name="RFC East" sheetId="9" r:id="rId9"/>
     <sheet name="RFC MI" sheetId="10" r:id="rId10"/>
     <sheet name="RFC West" sheetId="11" r:id="rId11"/>
+    <sheet name="SERC Central" sheetId="12" r:id="rId12"/>
+    <sheet name="SERC Delta" sheetId="13" r:id="rId13"/>
+    <sheet name="SERC Gateway" sheetId="14" r:id="rId14"/>
+    <sheet name="SERC SE" sheetId="15" r:id="rId15"/>
+    <sheet name="SERC VAC" sheetId="16" r:id="rId16"/>
+    <sheet name="SPP North" sheetId="17" r:id="rId17"/>
+    <sheet name="SPP South" sheetId="18" r:id="rId18"/>
+    <sheet name="ERCOT" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="4">
   <si>
     <t>  Coal</t>
   </si>
@@ -810,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,6 +1214,3262 @@
       </c>
       <c r="AF4" s="2">
         <v>145.08326700000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2.4407890000000001</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2.5821070000000002</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2.4866239999999999</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2.4453550000000002</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2.4941260000000001</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2.4965540000000002</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2.4796779999999998</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2.5004559999999998</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2.5155460000000001</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2.5541100000000001</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2.5829599999999999</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2.617988</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2.654649</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2.6878449999999998</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2.712583</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2.7406090000000001</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2.7755800000000002</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2.810568</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.8383240000000001</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.8684590000000001</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.9019539999999999</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2.9237829999999998</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2.9474870000000002</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2.9743569999999999</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>3.0106769999999998</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>3.049906</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>3.0620340000000001</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>3.1013030000000001</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>3.1257890000000002</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>3.1621700000000001</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>3.196472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.8354379999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.2778549999999997</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.271817</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.5848080000000002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.5996440000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.6754069999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.1979629999999997</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.310575</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.5035319999999999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.6015540000000001</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.6866450000000004</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.7895890000000003</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.9796149999999999</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5.1651249999999997</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5.2968640000000002</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.3751689999999996</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5.5187559999999998</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.5773219999999997</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5.6985299999999999</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5.7886189999999997</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.8887770000000002</v>
+      </c>
+      <c r="W2" s="2">
+        <v>6.0415390000000002</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6.1717079999999997</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>6.3430609999999996</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.6088509999999996</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>6.8902749999999999</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>7.2530900000000003</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.5891580000000003</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>7.9188479999999997</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>8.0600529999999999</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>8.3058150000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19.224457000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.288542</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.451751999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.520889</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20.529150000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20.525594999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20.922927999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>21.364414</v>
+      </c>
+      <c r="J3" s="2">
+        <v>21.695889999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22.107064999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>22.483136999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>22.893732</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23.298147</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23.746165999999999</v>
+      </c>
+      <c r="P3" s="2">
+        <v>24.166103</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>24.644832999999998</v>
+      </c>
+      <c r="R3" s="2">
+        <v>25.090299999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25.508429</v>
+      </c>
+      <c r="T3" s="2">
+        <v>25.961093999999999</v>
+      </c>
+      <c r="U3" s="2">
+        <v>26.421334999999999</v>
+      </c>
+      <c r="V3" s="2">
+        <v>26.827138999999999</v>
+      </c>
+      <c r="W3" s="2">
+        <v>27.253225</v>
+      </c>
+      <c r="X3" s="2">
+        <v>27.655616999999999</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>28.142959999999999</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>28.676559000000001</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>29.255678</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>29.886713</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>30.475062999999999</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>30.894293000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>31.520367</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>32.089737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.019102</v>
+      </c>
+      <c r="C4" s="2">
+        <v>96.741684000000006</v>
+      </c>
+      <c r="D4" s="2">
+        <v>93.916702000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>81.610977000000005</v>
+      </c>
+      <c r="F4" s="2">
+        <v>82.043045000000006</v>
+      </c>
+      <c r="G4" s="2">
+        <v>81.014587000000006</v>
+      </c>
+      <c r="H4" s="2">
+        <v>82.138405000000006</v>
+      </c>
+      <c r="I4" s="2">
+        <v>84.251564000000002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>86.263724999999994</v>
+      </c>
+      <c r="K4" s="2">
+        <v>88.312645000000003</v>
+      </c>
+      <c r="L4" s="2">
+        <v>90.293777000000006</v>
+      </c>
+      <c r="M4" s="2">
+        <v>92.455466999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>94.661736000000005</v>
+      </c>
+      <c r="O4" s="2">
+        <v>96.938164</v>
+      </c>
+      <c r="P4" s="2">
+        <v>99.228294000000005</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>101.574478</v>
+      </c>
+      <c r="R4" s="2">
+        <v>103.87576300000001</v>
+      </c>
+      <c r="S4" s="2">
+        <v>106.37766999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>108.82244900000001</v>
+      </c>
+      <c r="U4" s="2">
+        <v>111.25469200000001</v>
+      </c>
+      <c r="V4" s="2">
+        <v>113.738991</v>
+      </c>
+      <c r="W4" s="2">
+        <v>115.92682600000001</v>
+      </c>
+      <c r="X4" s="2">
+        <v>118.30042299999999</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>120.988846</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>123.85726200000001</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>126.850571</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>129.94142199999999</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>133.17370600000001</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>136.27383399999999</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>139.68362400000001</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>143.08766199999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.6525000000000001</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1.9553529999999999</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1.9006970000000001</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.8497809999999999</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2.0133329999999998</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2.0463640000000001</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2.0521720000000001</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2.0727829999999998</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2.1277789999999999</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2.1585589999999999</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2.1944499999999998</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2.236221</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2.2727879999999998</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2.3061980000000002</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2.344884</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2.3731450000000001</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2.4149949999999998</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2.4517449999999998</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.4864959999999998</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.529614</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.5673879999999998</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2.5983429999999998</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2.6268600000000002</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2.6580840000000001</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2.6928369999999999</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2.740551</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2.773517</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2.8045529999999999</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2.8399610000000002</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2.87432</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2.9080560000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.7213440000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.2935549999999996</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.9341029999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.2834989999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.3134700000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.4040910000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.8869229999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.0210489999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.1901599999999997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.276707</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.349901</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.4439120000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.6406869999999998</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4.8414169999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4.9709380000000003</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.0439689999999997</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5.1791239999999998</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.2491349999999999</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5.3750770000000001</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5.4752549999999998</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.5589789999999999</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5.677861</v>
+      </c>
+      <c r="X2" s="2">
+        <v>5.7592829999999999</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>5.901948</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.1731590000000001</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>6.4342940000000004</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>6.8345310000000001</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.1940799999999996</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>7.5383930000000001</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>7.6615580000000003</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>7.8926299999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18.975794</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22.984518000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.142067000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.214283000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21.068289</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21.064671000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21.402215999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>21.841968999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>22.172642</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22.583200000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>22.95862</v>
+      </c>
+      <c r="M3" s="2">
+        <v>23.369216999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23.773631999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24.220755</v>
+      </c>
+      <c r="P3" s="2">
+        <v>24.651606000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.127699</v>
+      </c>
+      <c r="R3" s="2">
+        <v>25.564876999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25.989038000000001</v>
+      </c>
+      <c r="T3" s="2">
+        <v>26.435696</v>
+      </c>
+      <c r="U3" s="2">
+        <v>26.895941000000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>27.301742999999998</v>
+      </c>
+      <c r="W3" s="2">
+        <v>27.727829</v>
+      </c>
+      <c r="X3" s="2">
+        <v>28.130193999999999</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>28.617563000000001</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>29.151163</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>29.729586000000001</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>30.361253999999999</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>30.949652</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>31.368773999999998</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>31.994955000000001</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>32.564200999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.8256129999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.591707</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11.09943</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.9789739999999991</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20.994871</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20.816075999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20.921292999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>23.034455999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>25.046612</v>
+      </c>
+      <c r="K4" s="2">
+        <v>27.095535000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>29.076665999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>31.238358000000002</v>
+      </c>
+      <c r="N4" s="2">
+        <v>33.444629999999997</v>
+      </c>
+      <c r="O4" s="2">
+        <v>35.721049999999998</v>
+      </c>
+      <c r="P4" s="2">
+        <v>38.011189000000002</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>40.357365000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>42.658653000000001</v>
+      </c>
+      <c r="S4" s="2">
+        <v>45.160556999999997</v>
+      </c>
+      <c r="T4" s="2">
+        <v>47.605339000000001</v>
+      </c>
+      <c r="U4" s="2">
+        <v>50.037579000000001</v>
+      </c>
+      <c r="V4" s="2">
+        <v>52.521877000000003</v>
+      </c>
+      <c r="W4" s="2">
+        <v>54.709713000000001</v>
+      </c>
+      <c r="X4" s="2">
+        <v>57.083309</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>59.771735999999997</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>62.640152</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>65.633460999999997</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>68.724311999999998</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>71.956588999999994</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>75.056725</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>78.466507000000007</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>81.870552000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.8843209999999999</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2.0996959999999998</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2.0508739999999999</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.9754119999999999</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2.0771500000000001</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2.1266820000000002</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2.170607</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2.1817500000000001</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2.1819350000000002</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2.2081819999999999</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2.2404069999999998</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2.2830859999999999</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2.3240989999999999</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2.3615520000000001</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2.3977240000000002</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2.4314870000000002</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2.4682379999999999</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2.5079920000000002</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.5424850000000001</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.5880480000000001</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.6317689999999998</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2.6688589999999999</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2.6991489999999998</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2.7338800000000001</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2.7787709999999999</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2.8256670000000002</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2.8633540000000002</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2.9003619999999999</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2.9362560000000002</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2.9755799999999999</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>3.0116890000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.2539259999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.883858</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.916226</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.548635</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.5046110000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.5660059999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.1808269999999998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.1974689999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.473827</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.612603</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.6933860000000003</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.8037879999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.957211</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5.1450870000000002</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5.26607</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.3418530000000004</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5.4740570000000002</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.5217219999999996</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5.6175420000000003</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5.6938329999999997</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.7632250000000003</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5.8758980000000003</v>
+      </c>
+      <c r="X2" s="2">
+        <v>5.9901270000000002</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>6.1692809999999998</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.4498470000000001</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>6.7263849999999996</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>7.1000129999999997</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.4330959999999999</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>7.8201229999999997</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>7.9912979999999996</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>8.2827219999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19.627935000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.769808000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.944880999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.986622000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19.918344000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>19.920497999999998</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20.397575</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20.840793999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>21.186153000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>21.596316999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>21.971533000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>22.381993999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>22.786770000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23.23395</v>
+      </c>
+      <c r="P3" s="2">
+        <v>23.657630999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>24.142016999999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>24.578434000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25.007814</v>
+      </c>
+      <c r="T3" s="2">
+        <v>25.448915</v>
+      </c>
+      <c r="U3" s="2">
+        <v>25.909148999999999</v>
+      </c>
+      <c r="V3" s="2">
+        <v>26.380226</v>
+      </c>
+      <c r="W3" s="2">
+        <v>26.800106</v>
+      </c>
+      <c r="X3" s="2">
+        <v>27.199646000000001</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>27.709182999999999</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>28.261789</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>28.825932999999999</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>29.490866</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>30.07056</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>30.51585</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>31.101151000000002</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>31.632095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.3320029999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>98.054587999999995</v>
+      </c>
+      <c r="D4" s="2">
+        <v>95.229598999999993</v>
+      </c>
+      <c r="E4" s="2">
+        <v>82.923882000000006</v>
+      </c>
+      <c r="F4" s="2">
+        <v>83.355941999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>82.327492000000007</v>
+      </c>
+      <c r="H4" s="2">
+        <v>83.451301999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>85.564468000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>87.576622</v>
+      </c>
+      <c r="K4" s="2">
+        <v>89.625549000000007</v>
+      </c>
+      <c r="L4" s="2">
+        <v>91.606673999999998</v>
+      </c>
+      <c r="M4" s="2">
+        <v>93.768371999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>95.974639999999994</v>
+      </c>
+      <c r="O4" s="2">
+        <v>98.251059999999995</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100.54119900000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>102.88737500000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>105.188667</v>
+      </c>
+      <c r="S4" s="2">
+        <v>107.690567</v>
+      </c>
+      <c r="T4" s="2">
+        <v>110.13535299999999</v>
+      </c>
+      <c r="U4" s="2">
+        <v>112.567589</v>
+      </c>
+      <c r="V4" s="2">
+        <v>115.05188800000001</v>
+      </c>
+      <c r="W4" s="2">
+        <v>117.239723</v>
+      </c>
+      <c r="X4" s="2">
+        <v>119.613319</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>122.301743</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>125.17016599999999</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>128.163467</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>131.25431800000001</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>134.486603</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>137.58673099999999</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>140.996521</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>144.40055799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3.2566000000000002</v>
+      </c>
+      <c r="C1" s="2">
+        <v>3.4120819999999998</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3.2023929999999998</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3.0572849999999998</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3.0372599999999998</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3.0142630000000001</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3.018081</v>
+      </c>
+      <c r="I1" s="2">
+        <v>3.0582669999999998</v>
+      </c>
+      <c r="J1" s="2">
+        <v>3.040368</v>
+      </c>
+      <c r="K1" s="2">
+        <v>3.0093209999999999</v>
+      </c>
+      <c r="L1" s="2">
+        <v>3.0507049999999998</v>
+      </c>
+      <c r="M1" s="2">
+        <v>3.0749490000000002</v>
+      </c>
+      <c r="N1" s="2">
+        <v>3.1312190000000002</v>
+      </c>
+      <c r="O1" s="2">
+        <v>3.1774960000000001</v>
+      </c>
+      <c r="P1" s="2">
+        <v>3.215897</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>3.2580770000000001</v>
+      </c>
+      <c r="R1" s="2">
+        <v>3.299474</v>
+      </c>
+      <c r="S1" s="2">
+        <v>3.3406720000000001</v>
+      </c>
+      <c r="T1" s="2">
+        <v>3.3738350000000001</v>
+      </c>
+      <c r="U1" s="2">
+        <v>3.4079649999999999</v>
+      </c>
+      <c r="V1" s="2">
+        <v>3.4521670000000002</v>
+      </c>
+      <c r="W1" s="2">
+        <v>3.4818319999999998</v>
+      </c>
+      <c r="X1" s="2">
+        <v>3.5095190000000001</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>3.5413920000000001</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>3.5764010000000002</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>3.621483</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>3.6575440000000001</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>3.686693</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>3.7228520000000001</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>3.7612760000000001</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>3.7880950000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.9589949999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.3970659999999997</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.5810219999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.8516149999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.871915</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.952842</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.3922970000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.5157999999999996</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.7125079999999997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.8107179999999996</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.8901399999999997</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.9879490000000004</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5.1753479999999996</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5.3618680000000003</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5.4953029999999998</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.5620599999999998</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5.6819389999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.7044730000000001</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5.7937149999999997</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5.8771789999999999</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.9714980000000004</v>
+      </c>
+      <c r="W2" s="2">
+        <v>6.1024459999999996</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6.1899470000000001</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>6.3254539999999997</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.5829700000000004</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>6.8364310000000001</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>7.1832320000000003</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.4906240000000004</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>7.8256629999999996</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>7.9526839999999996</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>8.1956720000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19.185858</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.247098999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.404646</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.476863999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20.824712999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20.826457999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21.321515999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>21.753792000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>22.079796000000002</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22.484085</v>
+      </c>
+      <c r="L3" s="2">
+        <v>22.858754999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>23.269461</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23.679200999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24.120940999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>24.556797</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.026606000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>25.451902</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25.883427000000001</v>
+      </c>
+      <c r="T3" s="2">
+        <v>26.335049000000001</v>
+      </c>
+      <c r="U3" s="2">
+        <v>26.790268000000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>27.194808999999999</v>
+      </c>
+      <c r="W3" s="2">
+        <v>27.629648</v>
+      </c>
+      <c r="X3" s="2">
+        <v>28.038252</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>28.524713999999999</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>29.044611</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>29.628495999999998</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>30.226257</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>30.838888000000001</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>31.262094000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>31.888183999999999</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>32.457073000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12.883934</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17.417818</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18.275579</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.402508000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15.908573000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15.815495</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16.092890000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>18.206049</v>
+      </c>
+      <c r="J4" s="2">
+        <v>20.218204</v>
+      </c>
+      <c r="K4" s="2">
+        <v>22.267128</v>
+      </c>
+      <c r="L4" s="2">
+        <v>24.248259000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>26.409949999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>28.616222</v>
+      </c>
+      <c r="O4" s="2">
+        <v>30.892643</v>
+      </c>
+      <c r="P4" s="2">
+        <v>33.182780999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>35.528956999999998</v>
+      </c>
+      <c r="R4" s="2">
+        <v>37.830246000000002</v>
+      </c>
+      <c r="S4" s="2">
+        <v>40.332149999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>42.776932000000002</v>
+      </c>
+      <c r="U4" s="2">
+        <v>45.209170999999998</v>
+      </c>
+      <c r="V4" s="2">
+        <v>47.693469999999998</v>
+      </c>
+      <c r="W4" s="2">
+        <v>49.881306000000002</v>
+      </c>
+      <c r="X4" s="2">
+        <v>52.254902000000001</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>54.943328999999999</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>57.811745000000002</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>60.805053999999998</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>63.895904999999999</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>67.128180999999998</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>70.228317000000004</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>73.638099999999994</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>77.042145000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3.7432840000000001</v>
+      </c>
+      <c r="C1" s="2">
+        <v>4.0710649999999999</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3.8726500000000001</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3.528648</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3.6204589999999999</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3.6241020000000002</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3.604644</v>
+      </c>
+      <c r="I1" s="2">
+        <v>3.625426</v>
+      </c>
+      <c r="J1" s="2">
+        <v>3.6469330000000002</v>
+      </c>
+      <c r="K1" s="2">
+        <v>3.6445090000000002</v>
+      </c>
+      <c r="L1" s="2">
+        <v>3.67306</v>
+      </c>
+      <c r="M1" s="2">
+        <v>3.7010200000000002</v>
+      </c>
+      <c r="N1" s="2">
+        <v>3.7476449999999999</v>
+      </c>
+      <c r="O1" s="2">
+        <v>3.7857310000000002</v>
+      </c>
+      <c r="P1" s="2">
+        <v>3.8020670000000001</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>3.8210820000000001</v>
+      </c>
+      <c r="R1" s="2">
+        <v>3.8521589999999999</v>
+      </c>
+      <c r="S1" s="2">
+        <v>3.8781219999999998</v>
+      </c>
+      <c r="T1" s="2">
+        <v>3.9048129999999999</v>
+      </c>
+      <c r="U1" s="2">
+        <v>3.929732</v>
+      </c>
+      <c r="V1" s="2">
+        <v>3.9683820000000001</v>
+      </c>
+      <c r="W1" s="2">
+        <v>3.9939879999999999</v>
+      </c>
+      <c r="X1" s="2">
+        <v>4.0161660000000001</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>4.0487270000000004</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>4.0789629999999999</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>4.1129350000000002</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>4.1626250000000002</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>4.2065219999999997</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>4.237514</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>4.2701419999999999</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>4.3000259999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.5362479999999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.9169080000000003</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.9169740000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.3241209999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4.2832530000000002</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.3742089999999996</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.7428169999999996</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.8278930000000004</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.0601099999999999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.1581460000000003</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5.2312329999999996</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5.3247010000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5.4938060000000002</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5.6644389999999998</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5.7898420000000002</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.8912690000000003</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.0352499999999996</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6.0529000000000002</v>
+      </c>
+      <c r="T2" s="2">
+        <v>6.1677879999999998</v>
+      </c>
+      <c r="U2" s="2">
+        <v>6.2808349999999997</v>
+      </c>
+      <c r="V2" s="2">
+        <v>6.4104700000000001</v>
+      </c>
+      <c r="W2" s="2">
+        <v>6.5919439999999998</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6.684037</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>6.8197070000000002</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>7.0586640000000003</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>7.3170900000000003</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>7.6292809999999998</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.9222869999999999</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>8.259112</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>8.3503679999999996</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>8.6387070000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19.185858</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.247098999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.404646</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.476863999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21.196680000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21.188739999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21.558565000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>22.001747000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>22.347515000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22.758082999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>23.133527999999998</v>
+      </c>
+      <c r="M3" s="2">
+        <v>23.544125000000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23.948359</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24.380572999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>24.819813</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.294042999999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>25.724695000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>26.159672</v>
+      </c>
+      <c r="T3" s="2">
+        <v>26.61063</v>
+      </c>
+      <c r="U3" s="2">
+        <v>27.055758999999998</v>
+      </c>
+      <c r="V3" s="2">
+        <v>27.461561</v>
+      </c>
+      <c r="W3" s="2">
+        <v>27.903347</v>
+      </c>
+      <c r="X3" s="2">
+        <v>28.317059</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>28.802586000000002</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>29.311616999999998</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>29.898886000000001</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>30.470129</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>31.101824000000001</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>31.528593000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>32.154620999999999</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>32.724018000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12.883934</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17.417818</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18.275579</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.402508000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15.904094000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15.811066</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16.092890000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>16.279076</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16.743345000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16.964746000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>17.359117999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>17.699432000000002</v>
+      </c>
+      <c r="N4" s="2">
+        <v>18.055513000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>18.421209000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>18.814608</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>19.132856</v>
+      </c>
+      <c r="R4" s="2">
+        <v>21.434145000000001</v>
+      </c>
+      <c r="S4" s="2">
+        <v>23.936049000000001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>26.380828999999999</v>
+      </c>
+      <c r="U4" s="2">
+        <v>28.813068000000001</v>
+      </c>
+      <c r="V4" s="2">
+        <v>31.297369</v>
+      </c>
+      <c r="W4" s="2">
+        <v>33.485202999999998</v>
+      </c>
+      <c r="X4" s="2">
+        <v>35.858798999999998</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>38.547226000000002</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>41.415641999999998</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>44.408951000000002</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>47.499802000000003</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>50.732078999999999</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>53.832214</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>57.242001000000002</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>60.646042000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.4128179999999999</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1.647133</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1.6210580000000001</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.582246</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1.718494</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1.77295</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1.8038810000000001</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1.816173</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1.8509500000000001</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1.8819079999999999</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1.915311</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1.95601</v>
+      </c>
+      <c r="N1" s="2">
+        <v>1.998421</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2.0385089999999999</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2.0808369999999998</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2.1211180000000001</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2.1662089999999998</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2.2116060000000002</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.2559849999999999</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.3066939999999998</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.354514</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2.3958430000000002</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2.4289420000000002</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2.4653659999999999</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2.5027360000000001</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2.5487669999999998</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2.5942620000000001</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2.62873</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2.6658249999999999</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2.7017530000000001</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2.7365590000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.5070990000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.0302749999999996</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.3080039999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.6712349999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.6290749999999998</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.6807829999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.4626929999999998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.7194950000000002</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.9363279999999996</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.0687530000000001</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5.1941740000000003</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5.3457840000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5.508362</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5.6685509999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5.7770840000000003</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.9310260000000001</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.0466360000000003</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6.030443</v>
+      </c>
+      <c r="T2" s="2">
+        <v>6.138757</v>
+      </c>
+      <c r="U2" s="2">
+        <v>6.2517680000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <v>6.3089139999999997</v>
+      </c>
+      <c r="W2" s="2">
+        <v>6.4182730000000001</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6.5580239999999996</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>6.7104229999999996</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.9469620000000001</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>7.2428410000000003</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>7.5872970000000004</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.9278870000000001</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>8.3061740000000004</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>8.4991699999999994</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>8.7423199999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19.553470999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.684732</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.859784999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.914497000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19.704315000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>19.696380999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20.066203999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20.509388000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>20.855153999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>21.265718</v>
+      </c>
+      <c r="L3" s="2">
+        <v>21.641165000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>22.051762</v>
+      </c>
+      <c r="N3" s="2">
+        <v>22.456177</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22.903299000000001</v>
+      </c>
+      <c r="P3" s="2">
+        <v>23.323250000000002</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>23.801981000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>24.247420999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>24.665576999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>25.118241999999999</v>
+      </c>
+      <c r="U3" s="2">
+        <v>25.578485000000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>25.984286999999998</v>
+      </c>
+      <c r="W3" s="2">
+        <v>26.410374000000001</v>
+      </c>
+      <c r="X3" s="2">
+        <v>26.812738</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>27.30011</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>27.833705999999999</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>28.432690000000001</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>29.045248000000001</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>29.632196</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>30.054552000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>30.677499999999998</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>31.246744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.2494079999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.4550820000000009</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.8752110000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.9649320000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19.625966999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>19.195974</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20.319787999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>22.432950999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>24.445107</v>
+      </c>
+      <c r="K4" s="2">
+        <v>26.494029999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>28.475161</v>
+      </c>
+      <c r="M4" s="2">
+        <v>30.636852000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>32.843124000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <v>35.119545000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>37.409683000000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>39.755859000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>42.057147999999998</v>
+      </c>
+      <c r="S4" s="2">
+        <v>44.559052000000001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>47.003833999999998</v>
+      </c>
+      <c r="U4" s="2">
+        <v>49.436073</v>
+      </c>
+      <c r="V4" s="2">
+        <v>51.920372</v>
+      </c>
+      <c r="W4" s="2">
+        <v>54.108207999999998</v>
+      </c>
+      <c r="X4" s="2">
+        <v>56.481803999999997</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>59.170231000000001</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>62.038646999999997</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>65.031952000000004</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>68.122810000000001</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>71.355086999999997</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>74.455223000000004</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>77.865004999999996</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>81.269042999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.7060569999999999</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1.938121</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1.877823</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.833189</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1.995352</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2.0288740000000001</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2.0257999999999998</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2.0323639999999998</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2.0777519999999998</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2.1090879999999999</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2.1460159999999999</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2.189867</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2.228974</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2.2633670000000001</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2.3007070000000001</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2.3344299999999998</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2.3764630000000002</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2.415327</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.451419</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.4956619999999998</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.5335670000000001</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2.5649510000000002</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2.5937049999999999</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2.6248870000000002</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2.6588799999999999</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2.706575</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2.7411509999999999</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2.7733140000000001</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2.8090799999999998</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2.843982</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2.879213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.7156130000000003</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.3175119999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.8995090000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.2595459999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.2951229999999998</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.3882110000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.8702679999999998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.9798209999999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.1639189999999999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.2506849999999998</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.3236179999999997</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.4143650000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.6150989999999998</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4.8151849999999996</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4.9305649999999996</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.0064120000000001</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5.1578419999999996</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.2383629999999997</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5.3679690000000004</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5.4683679999999999</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.551685</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5.6704650000000001</v>
+      </c>
+      <c r="X2" s="2">
+        <v>5.7504189999999999</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>5.8920830000000004</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.1613420000000003</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>6.4222939999999999</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>6.8265880000000001</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.18818</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>7.5327409999999997</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>7.6557930000000001</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>7.8867440000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19.010653999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.038979000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.197189000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.258752999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20.981424000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20.973402</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21.307072000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>21.747398</v>
+      </c>
+      <c r="J3" s="2">
+        <v>22.079456</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22.490342999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>22.866054999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>23.276651000000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23.681066999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24.128188999999999</v>
+      </c>
+      <c r="P3" s="2">
+        <v>24.558274999999998</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.035036000000002</v>
+      </c>
+      <c r="R3" s="2">
+        <v>25.472442999999998</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25.896532000000001</v>
+      </c>
+      <c r="T3" s="2">
+        <v>26.343613000000001</v>
+      </c>
+      <c r="U3" s="2">
+        <v>26.803856</v>
+      </c>
+      <c r="V3" s="2">
+        <v>27.209658000000001</v>
+      </c>
+      <c r="W3" s="2">
+        <v>27.635743999999999</v>
+      </c>
+      <c r="X3" s="2">
+        <v>28.038108999999999</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>28.525478</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>29.059078</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>29.638936999999999</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>30.269272000000001</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>30.857569000000002</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>31.276914999999999</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>31.902868000000002</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>32.472915999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.8248889999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.590733999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11.09839</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.9780460000000009</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20.991385999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20.812591999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>21.936405000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>24.049569999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>26.061726</v>
+      </c>
+      <c r="K4" s="2">
+        <v>28.110648999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>30.09178</v>
+      </c>
+      <c r="M4" s="2">
+        <v>32.253470999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>34.459743000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <v>36.736164000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>39.026302000000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>41.372478000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>43.673766999999998</v>
+      </c>
+      <c r="S4" s="2">
+        <v>46.175671000000001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>48.620452999999998</v>
+      </c>
+      <c r="U4" s="2">
+        <v>51.052692</v>
+      </c>
+      <c r="V4" s="2">
+        <v>53.536991</v>
+      </c>
+      <c r="W4" s="2">
+        <v>55.724826999999998</v>
+      </c>
+      <c r="X4" s="2">
+        <v>58.098422999999997</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>60.786850000000001</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>63.655265999999997</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>66.648574999999994</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>69.739425999999995</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>72.971703000000005</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>76.071838</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>79.481621000000004</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>82.885666000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.8940619999999999</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1.9956560000000001</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1.8923030000000001</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.8544449999999999</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2.0252349999999999</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2.0548500000000001</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2.0433119999999998</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2.0552060000000001</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2.1036060000000001</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2.1334520000000001</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2.1713930000000001</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2.21529</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2.2540849999999999</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2.288141</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2.3250890000000002</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2.3574670000000002</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2.3989060000000002</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2.436779</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.4720409999999999</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.5156800000000001</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.552978</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2.5837650000000001</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2.6122740000000002</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2.6432410000000002</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2.6773609999999999</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2.7251989999999999</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2.7587769999999998</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2.7905150000000001</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2.8261560000000001</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2.8609059999999999</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2.8956300000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.7093040000000004</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.2957879999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.8983089999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.2528619999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.2831700000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.3754080000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.8579129999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.973509</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.1611760000000002</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.2474660000000002</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.3200609999999999</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.4102209999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.6102309999999997</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4.8101789999999998</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4.92997</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.005782</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5.1571009999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.2378220000000004</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5.3678400000000002</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5.4681490000000004</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.5515679999999996</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5.6702310000000002</v>
+      </c>
+      <c r="X2" s="2">
+        <v>5.7502430000000002</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>5.8917590000000004</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.1610690000000004</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>6.4221130000000004</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>6.8264050000000003</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7.1880269999999999</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>7.5325990000000003</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>7.6556410000000001</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>7.8865809999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18.975794</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22.984518000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.142067000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.214283000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21.068289</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21.064671000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21.402215999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>21.841968999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>22.172642</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22.583200000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>22.95862</v>
+      </c>
+      <c r="M3" s="2">
+        <v>23.369216999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23.773631999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24.220755</v>
+      </c>
+      <c r="P3" s="2">
+        <v>24.651606000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.127699</v>
+      </c>
+      <c r="R3" s="2">
+        <v>25.564876999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25.989038000000001</v>
+      </c>
+      <c r="T3" s="2">
+        <v>26.435696</v>
+      </c>
+      <c r="U3" s="2">
+        <v>26.895941000000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>27.301742999999998</v>
+      </c>
+      <c r="W3" s="2">
+        <v>27.727829</v>
+      </c>
+      <c r="X3" s="2">
+        <v>28.130193999999999</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>28.617563000000001</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>29.151163</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>29.729586000000001</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>30.361253999999999</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>30.949652</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>31.368773999999998</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>31.994955000000001</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>32.564200999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.8248889999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.590733999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11.09839</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.9780460000000009</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20.991385999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20.812591999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>21.936405000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>24.049569999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>26.061726</v>
+      </c>
+      <c r="K4" s="2">
+        <v>28.110648999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>30.09178</v>
+      </c>
+      <c r="M4" s="2">
+        <v>32.253470999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>34.459743000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <v>36.736164000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>39.026302000000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>41.372478000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>43.673766999999998</v>
+      </c>
+      <c r="S4" s="2">
+        <v>46.175671000000001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>48.620452999999998</v>
+      </c>
+      <c r="U4" s="2">
+        <v>51.052692</v>
+      </c>
+      <c r="V4" s="2">
+        <v>53.536991</v>
+      </c>
+      <c r="W4" s="2">
+        <v>55.724826999999998</v>
+      </c>
+      <c r="X4" s="2">
+        <v>58.098422999999997</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>60.786850000000001</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>63.655265999999997</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>66.648574999999994</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>69.739425999999995</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>72.971703000000005</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>76.071838</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>79.481621000000004</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>82.885666000000001</v>
       </c>
     </row>
   </sheetData>

--- a/EISPC/Data/Regional Fuel Prices/Regional Fuel Prices.xlsx
+++ b/EISPC/Data/Regional Fuel Prices/Regional Fuel Prices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="7635" windowHeight="1170" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="7635" windowHeight="1170" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="SPP North" sheetId="17" r:id="rId17"/>
     <sheet name="SPP South" sheetId="18" r:id="rId18"/>
     <sheet name="ERCOT" sheetId="19" r:id="rId19"/>
+    <sheet name="WECC Rockies" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="4">
   <si>
     <t>  Coal</t>
   </si>
@@ -4074,7 +4075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -4786,6 +4787,413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.707484</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1.7894369999999999</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1.7595879999999999</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.768105</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1.8207</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1.8459509999999999</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1.880509</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1.8729899999999999</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1.884625</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1.885419</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1.9069259999999999</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1.9279299999999999</v>
+      </c>
+      <c r="N1" s="2">
+        <v>1.9686999999999999</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2.0002450000000001</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2.0368219999999999</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2.077528</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2.1171709999999999</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2.1568649999999998</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.1802800000000002</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.2147329999999998</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.2449340000000002</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2.2737829999999999</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2.3000250000000002</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2.3332099999999998</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2.3661660000000002</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2.4080249999999999</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2.4445640000000002</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2.4727480000000002</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2.5058180000000001</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2.5408149999999998</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2.5744820000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.3452400000000004</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.7410699999999997</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.050605</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.5931730000000002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.6501549999999998</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.7422800000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.3266910000000003</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.5866990000000003</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.9164130000000004</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.1266069999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5.2470059999999998</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5.4923729999999997</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5.7804130000000002</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5.9971540000000001</v>
+      </c>
+      <c r="P2" s="2">
+        <v>6.0394829999999997</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6.1027069999999997</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.1557259999999996</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6.1522639999999997</v>
+      </c>
+      <c r="T2" s="2">
+        <v>6.2354580000000004</v>
+      </c>
+      <c r="U2" s="2">
+        <v>6.2984830000000001</v>
+      </c>
+      <c r="V2" s="2">
+        <v>6.3871729999999998</v>
+      </c>
+      <c r="W2" s="2">
+        <v>6.5231149999999998</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6.7000570000000002</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>6.8948150000000004</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>7.1483189999999999</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>7.4741350000000004</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>7.7710470000000003</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>8.0873670000000004</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>8.4799570000000006</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>8.6290790000000008</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>8.7785720000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19.16976</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.213775999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.371372000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.443548</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21.624593999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21.737611999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>22.084225</v>
+      </c>
+      <c r="I3" s="2">
+        <v>22.594194000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>23.012087000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>23.360817000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>23.731293000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>24.135964999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>24.547363000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24.980013</v>
+      </c>
+      <c r="P3" s="2">
+        <v>25.414149999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.880486999999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>26.305589999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>26.766425999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>27.227824999999999</v>
+      </c>
+      <c r="U3" s="2">
+        <v>27.686518</v>
+      </c>
+      <c r="V3" s="2">
+        <v>28.132069000000001</v>
+      </c>
+      <c r="W3" s="2">
+        <v>28.547281000000002</v>
+      </c>
+      <c r="X3" s="2">
+        <v>28.929182000000001</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>29.394801999999999</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>29.909846999999999</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>30.573606000000002</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>31.114291999999999</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>31.732621999999999</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>32.153973000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>32.729045999999997</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>33.289619000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.7871419999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>98.509726999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>95.684746000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <v>83.379020999999995</v>
+      </c>
+      <c r="F4" s="2">
+        <v>83.811088999999996</v>
+      </c>
+      <c r="G4" s="2">
+        <v>82.782630999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>83.906447999999997</v>
+      </c>
+      <c r="I4" s="2">
+        <v>86.019608000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>88.031768999999997</v>
+      </c>
+      <c r="K4" s="2">
+        <v>90.080687999999995</v>
+      </c>
+      <c r="L4" s="2">
+        <v>92.061820999999995</v>
+      </c>
+      <c r="M4" s="2">
+        <v>94.223511000000002</v>
+      </c>
+      <c r="N4" s="2">
+        <v>96.429778999999996</v>
+      </c>
+      <c r="O4" s="2">
+        <v>98.706207000000006</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100.99633799999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>103.342522</v>
+      </c>
+      <c r="R4" s="2">
+        <v>105.643806</v>
+      </c>
+      <c r="S4" s="2">
+        <v>108.145714</v>
+      </c>
+      <c r="T4" s="2">
+        <v>110.590492</v>
+      </c>
+      <c r="U4" s="2">
+        <v>113.02273599999999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>115.507034</v>
+      </c>
+      <c r="W4" s="2">
+        <v>117.69486999999999</v>
+      </c>
+      <c r="X4" s="2">
+        <v>120.068466</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>122.756889</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>125.625305</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>128.618607</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>131.709473</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>134.941742</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>138.04188500000001</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>141.45166</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>144.85569799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF4"/>
